--- a/ExcelFormat/FormatoExcelLerner-FormatoNuevo.xlsx
+++ b/ExcelFormat/FormatoExcelLerner-FormatoNuevo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERSONAL\CC SISTEMAS\OFIMATICA\LERNER\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERSONAL\CC SISTEMAS\OFIMATICA\LERNER\RQ-Lerner\ExcelFormat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BF33C0-EED1-45F1-BDCD-28487FF2DCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF03F81-FF71-4765-BBC3-B43EA569CF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{01DC2D96-F340-4716-A343-BB1F59A963B4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{01DC2D96-F340-4716-A343-BB1F59A963B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -800,26 +800,26 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="33.54296875" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" customWidth="1"/>
+    <col min="6" max="6" width="35.54296875" customWidth="1"/>
+    <col min="7" max="7" width="38.1796875" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="63.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>28</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="K1" s="20"/>
       <c r="L1" s="21"/>
     </row>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
         <v>41</v>
       </c>
@@ -853,7 +853,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="27"/>
     </row>
-    <row r="3" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
         <v>40</v>
       </c>
@@ -871,7 +871,7 @@
       <c r="K3" s="26"/>
       <c r="L3" s="27"/>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="9" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>29</v>
       </c>
@@ -909,7 +909,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>1667</v>
       </c>
@@ -947,7 +947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>4001</v>
       </c>
@@ -985,9 +985,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
-        <v>3065</v>
+        <v>1667</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -1023,9 +1023,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
-        <v>1892</v>
+        <v>1667</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18">
         <v>1667</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
         <v>4001</v>
       </c>
@@ -1135,9 +1135,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
-        <v>3065</v>
+        <v>1667</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -1173,9 +1173,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18">
-        <v>1892</v>
+        <v>1667</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>

--- a/ExcelFormat/FormatoExcelLerner-FormatoNuevo.xlsx
+++ b/ExcelFormat/FormatoExcelLerner-FormatoNuevo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERSONAL\CC SISTEMAS\OFIMATICA\LERNER\RQ-Lerner\ExcelFormat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF03F81-FF71-4765-BBC3-B43EA569CF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970772FB-2A64-459F-8A8F-B775E259E953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{01DC2D96-F340-4716-A343-BB1F59A963B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{01DC2D96-F340-4716-A343-BB1F59A963B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>FARO EDITORES SAS</t>
   </si>
@@ -59,9 +59,6 @@
     <t>CENTRO</t>
   </si>
   <si>
-    <t>SOLICITADO</t>
-  </si>
-  <si>
     <t>BONUSBOOKS LTDA</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>NORTE</t>
   </si>
   <si>
-    <t>PENDIENTE</t>
-  </si>
-  <si>
     <t>EDICIONES FONDO DE CULTURA ECONOMICA SAS</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
   </si>
   <si>
     <t>MEDELLIN</t>
-  </si>
-  <si>
-    <t>RECIBIDO</t>
   </si>
   <si>
     <t>EDITORIAL OCEANO DE COLOMBIA S.A.</t>
@@ -163,9 +154,6 @@
   </si>
   <si>
     <t>Nombre librero</t>
-  </si>
-  <si>
-    <t>Estado</t>
   </si>
   <si>
     <t xml:space="preserve">YESICA MARTINEZ CERVANTEZ                                   </t>
@@ -232,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -376,11 +364,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -403,18 +492,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -433,9 +516,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -462,6 +542,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,126 +907,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366669E2-0303-4454-8654-275B0BC991B2}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="33.54296875" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" customWidth="1"/>
-    <col min="6" max="6" width="35.54296875" customWidth="1"/>
-    <col min="7" max="7" width="38.1796875" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="63.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22">
+        <v>1022336208</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
-    </row>
-    <row r="3" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25">
-        <v>1022336208</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
-    </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
         <v>1667</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -937,34 +1040,31 @@
       <c r="I5" s="7">
         <v>5</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="J5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="11" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>4001</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
-        <v>4001</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>5</v>
@@ -975,34 +1075,31 @@
       <c r="I6" s="4">
         <v>2</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="8" t="s">
+      <c r="J6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>1667</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="C7" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
-        <v>1667</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>5</v>
@@ -1013,37 +1110,34 @@
       <c r="I7" s="4">
         <v>5</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="8" t="s">
+      <c r="J7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>1667</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
-        <v>1667</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="H8" s="3">
         <v>66000</v>
@@ -1051,22 +1145,21 @@
       <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="8" t="s">
+      <c r="J8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
         <v>1667</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1087,34 +1180,31 @@
       <c r="I9" s="4">
         <v>6</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="J9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>4001</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18">
-        <v>4001</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>5</v>
@@ -1125,34 +1215,31 @@
       <c r="I10" s="4">
         <v>4</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="J10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>1667</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
-        <v>1667</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>5</v>
@@ -1163,59 +1250,55 @@
       <c r="I11" s="4">
         <v>2</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="J11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>1667</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="D12" s="29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
-        <v>1667</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="E12" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="F12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="G12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H12" s="31">
         <v>66000</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="32">
         <v>5</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="8" t="s">
+      <c r="J12" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="E3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
